--- a/src/main/resources/templates/excel/highAction.xlsx
+++ b/src/main/resources/templates/excel/highAction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\工作文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57158D6-04F6-4C34-ABD7-EC4C7E424845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9DA89-C1E1-48E0-9C2C-4A09A0742F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6070" yWindow="580" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.date}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,6 +148,18 @@
   </si>
   <si>
     <t>${e.remarks}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.time}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dFormat.format(e.date)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.involveUid}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,6 +287,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,9 +297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,7 +588,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -610,13 +618,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
@@ -631,43 +639,47 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -676,6 +688,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/highAction.xlsx
+++ b/src/main/resources/templates/excel/highAction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D9DA89-C1E1-48E0-9C2C-4A09A0742F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AAC96-A177-4C1F-B548-7CAB696DB8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.involveUid}</t>
+    <t>${e.username}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/templates/excel/highAction.xlsx
+++ b/src/main/resources/templates/excel/highAction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AAC96-A177-4C1F-B548-7CAB696DB8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF892E2-61E9-4794-9D82-B5ED5AAF96E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="410" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q2")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,57 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="Q2")</t>
+          <t>jx:each(items="list" var="e" lastCell="Q3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7B7B0370-FBFE-42DF-81B4-1AA0E9A63EC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="e.imgs" var="url" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Q</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6A3C29A4-832E-4F62-B405-63A60E955C59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q3" src="url")</t>
         </r>
       </text>
     </comment>
@@ -167,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +251,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -585,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -681,6 +738,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:M1"/>

--- a/src/main/resources/templates/excel/highAction.xlsx
+++ b/src/main/resources/templates/excel/highAction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF892E2-61E9-4794-9D82-B5ED5AAF96E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41050B4D-657F-4A8D-96A8-4905999A7981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="410" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q2")</t>
         </r>
       </text>
     </comment>
@@ -56,46 +56,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="Q3")</t>
+          <t>jx:each(items="list" var="e" lastCell="Q2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7B7B0370-FBFE-42DF-81B4-1AA0E9A63EC8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="e.imgs" var="url" lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Q</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6A3C29A4-832E-4F62-B405-63A60E955C59}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{12A677D0-27CC-4887-B974-5F825D9A210A}">
       <text>
         <r>
           <rPr>
@@ -106,7 +71,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:image(lastCell="Q3" src="url")</t>
+          <t>jx:each(items="e.imgs" var="url" lastCell="Q2" direction="RIGHT")
+jx:image(lastCell="Q2" src="url" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -217,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,13 +219,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,11 +294,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,6 +315,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,15 +619,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,13 +655,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,11 +671,11 @@
       <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -720,13 +700,13 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
@@ -736,9 +716,25 @@
       <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:M1"/>

--- a/src/main/resources/templates/excel/highAction.xlsx
+++ b/src/main/resources/templates/excel/highAction.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/casinos_project/CCTV/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41050B4D-657F-4A8D-96A8-4905999A7981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1040" windowWidth="20520" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lorenzo</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DE4DA4A2-E5EB-4964-90A2-9FADE98E9DD9}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{08A00CCB-54C5-44A9-805D-474E4CAC3899}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{12A677D0-27CC-4887-B974-5F825D9A210A}">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.no}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,13 +177,17 @@
   </si>
   <si>
     <t>${e.username}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,29 +249,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -274,29 +279,29 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -321,23 +326,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,19 +623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,13 +660,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,65 +680,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="10"/>
+      <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
